--- a/python/python常见函数用法汇总.xlsx
+++ b/python/python常见函数用法汇总.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZhenLongZhuang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZhenLongZhuang/github/books/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34160" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-30780" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="python基础" sheetId="1" r:id="rId1"/>
+    <sheet name="列表和元祖" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
   <si>
     <t>函数名</t>
     <rPh sb="0" eb="1">
@@ -59,6 +60,888 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>jiu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入值</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sh'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用示例</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数功能</t>
+    <rPh sb="0" eb="1">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户输入</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yon'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数运算</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数运算结果</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算绝对值</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'dui'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被运算数的绝对值</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yun'suan'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jue'dui'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = abs(-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">x = pow(2,3) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算结果</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age = input("请输入年龄")</t>
+    <rPh sb="13" eb="14">
+      <t>qing'shu'ru</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>nian'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点圆整</t>
+    <rPh sb="0" eb="1">
+      <t>fu'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆整结果</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = round(2/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当结果为x.5时候，优先取偶数</t>
+    <rPh sb="0" eb="1">
+      <t>danng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'xian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ou'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math.floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math.ceil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下取整</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上取整</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下取整结果</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上取整结果</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math.floor(2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math.ceil(2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算平方根</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'fang'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方根</t>
+    <rPh sb="0" eb="1">
+      <t>ping'fang'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqrt(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入为负数时，会报错</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmath.sqrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算平方根</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan'ping'fang'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实数平方根</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'fang'gen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmath.cqrt(-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以计算负数</t>
+    <rPh sb="0" eb="1">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'suan'fu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math.sqrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string.join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符列表转字符串</t>
+    <rPh sb="0" eb="1">
+      <t>zi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <rPh sb="0" eb="1">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"".join(['z','h'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转字符列表</t>
+    <rPh sb="0" eb="1">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'f</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符列表</t>
+    <rPh sb="0" eb="1">
+      <t>zi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list('abc')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['a','b','c']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除列表元素</t>
+    <rPh sb="0" eb="1">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非函数</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>han'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=[1,2,3],del x[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.append</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加元素</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空列表</t>
+    <rPh sb="0" eb="1">
+      <t>qing'kong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝列表</t>
+    <rPh sb="0" eb="1">
+      <t>kao'bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定元素出现的次数</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'su</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.count(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个列表扩充另外一个列表</t>
+    <rPh sb="0" eb="1">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuo'chong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ling'wai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'eg</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与append不同，extend只能接受列表作为传入参数</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jie'shou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zuo'wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chuan'ru</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定值第一次出现的位置</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di'yi'ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ch'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到时会返回异常</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'bu'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定位置插入</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一一个既返回值，又修改列表的方法</t>
+    <rPh sb="0" eb="1">
+      <t>wei'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'ran</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定位置的值</t>
+    <rPh sb="0" eb="1">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除第一个为指定值的元素</t>
+    <rPh sb="0" eb="1">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'yi'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'ding'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yuan'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到该元素会报错</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'bu'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(),和[:]切片赋值操作也是深拷贝</t>
+    <rPh sb="7" eb="8">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qie'pian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ye'shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kao'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转列表</t>
+    <rPh sb="0" eb="1">
+      <t>fan'zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lst.sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表排序</t>
+    <rPh sb="0" eb="1">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=sorted(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有返回值，不改变原列表</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gai'bian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是函数,而且可以删除区间</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>han'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>er'qie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qu'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,13 +966,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -119,13 +1023,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,195 +1332,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/python/python常见函数用法汇总.xlsx
+++ b/python/python常见函数用法汇总.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30780" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-33440" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="python基础" sheetId="1" r:id="rId1"/>
     <sheet name="列表和元祖" sheetId="2" r:id="rId2"/>
+    <sheet name="字符串" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t>函数名</t>
     <rPh sb="0" eb="1">
@@ -942,6 +943,236 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>qu'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边填充使居中</t>
+    <rPh sb="0" eb="1">
+      <t>liang'bian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s="zhuang",print(s.center(10))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子串第一次出现的索引</t>
+    <rPh sb="0" eb="1">
+      <t>zi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'yi'ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo'yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引值</t>
+    <rPh sb="0" eb="1">
+      <t>suo'yin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(s.find(''z''))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 没找到返回-1
+2 可以指定查找的起点和终点</t>
+    <rPh sb="2" eb="3">
+      <t>mei'zhao'dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cha'zhao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qi'dian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>he</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhong'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并序列元素</t>
+    <rPh sb="0" eb="1">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并后结果</t>
+    <rPh sb="0" eb="1">
+      <t>he'bing'hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.lower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回字符串的小写</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de'xiao'xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定子串替换为另一个字符串</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ling'yi'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串拆分</t>
+    <rPh sb="0" eb="1">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到的话就返回原字符串</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'bu'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有指定分隔符就默认用空格符</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'ge'fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kong'ge'fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,6 +1285,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1755,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2193,4 +2436,146 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="31.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python/python常见函数用法汇总.xlsx
+++ b/python/python常见函数用法汇总.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33440" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-30480" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="python基础" sheetId="1" r:id="rId1"/>
     <sheet name="列表和元祖" sheetId="2" r:id="rId2"/>
     <sheet name="字符串" sheetId="3" r:id="rId3"/>
+    <sheet name="字典映射" sheetId="4" r:id="rId4"/>
+    <sheet name="条件、循环语句" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>函数名</t>
     <rPh sb="0" eb="1">
@@ -1173,6 +1175,639 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>kong'ge'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">del </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除键为k的项</t>
+    <rPh sb="0" eb="1">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=del y['name']这样的写法是会报错的</t>
+    <rPh sb="15" eb="16">
+      <t>zhe'yang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xie'fa</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bao'cuo</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式说明符</t>
+    <rPh sb="0" eb="1">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo'ming'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phontbook={'name':'dengyang'}
+'my name is {name}'.format_map(phonebook)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic,.clear()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除所有项</t>
+    <rPh sb="0" eb="1">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepcopy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度拷贝</t>
+    <rPh sb="0" eb="1">
+      <t>shen'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造一个有关键字但是没有值的字典</t>
+    <rPh sb="0" eb="1">
+      <t>gou'zao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan'jian'zi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造出的字典</t>
+    <rPh sb="0" eb="1">
+      <t>gou'zao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dict.fromkeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}.fromkeys(['name','age']','unknown')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个已经有项的字典调用这个方法没有任何作用</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhe'g</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ren'he</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zuo'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取值</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与通过key直接访问不同，这个方法在没有对应的key的时候不会报错,会返回None</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhgi'jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'wen'bu'tong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>bu'hui</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bao'cuo</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fan'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回(key,value)形式列表</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xing'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了字典，items会跟着一起改变</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'dian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gen'zhe</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>y'qi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gai'bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回keys的字典视图</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上，也会跟着字典的变化而变化</t>
+    <rPh sb="0" eb="1">
+      <t>tong'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ye'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen'zhe'zi'dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian'hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>er</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bian'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定键对应的值，并删除</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shan'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有的话会报错</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.popitem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机去掉一个项</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'diao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.setdefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定键关联的值，没有值时赋值</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan'lian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x={"name":'1'},x.setdefault('name','2')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键对应的值</t>
+    <rPh sb="0" eb="1">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有这个键，那么就初始化他的值</t>
+    <rPh sb="0" eb="1">
+      <t>ru'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>na'me</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被删除的键值对</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shan'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'zhi'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个字典去更新领一个字典</t>
+    <rPh sb="0" eb="1">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'xn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ling</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有则改之，无则加冕</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jia'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic.values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回values的视图</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与keys和items一样，字典动则结果动</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'yang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi'dian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jie'guo'dong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1254,7 +1889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1296,6 +1931,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1999,7 +2637,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2360,7 +2998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2442,7 +3080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2578,4 +3216,236 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="32" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python/python常见函数用法汇总.xlsx
+++ b/python/python常见函数用法汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30480" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-18900" yWindow="1280" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="python基础" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="字符串" sheetId="3" r:id="rId3"/>
     <sheet name="字典映射" sheetId="4" r:id="rId4"/>
     <sheet name="条件、循环语句" sheetId="5" r:id="rId5"/>
+    <sheet name="抽象" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="198">
   <si>
     <t>函数名</t>
     <rPh sb="0" eb="1">
@@ -1808,6 +1809,452 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.endswith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断字符串是否以指定字符串结尾</t>
+    <rPh sb="0" eb="1">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是同一个对象</t>
+    <rPh sb="0" eb="1">
+      <t>shi'bu'shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tong'yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是同一个对象</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'yi'g</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是容器成员</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>rong'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是容器成员</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rong'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取字符的顺序值</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shun'xu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顺序值获取字符</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shun'xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建范围</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range(0,100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含起点但是不包含终点</t>
+    <rPh sb="0" eb="1">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'dian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao'han</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个用于并行迭代的序列</t>
+    <rPh sb="0" eb="1">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bing'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xu'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x =(1,2,3) y =(4,5,6),z = list(zip(x,y))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(1,4),(2,5),(3,6)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个序列可以长度不同，zip会自动取短的那一个</t>
+    <rPh sb="0" eb="1">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chang'du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>na</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yi'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代序列</t>
+    <rPh sb="0" eb="1">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index,value的序列</t>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xu'lie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reversed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非就地地翻转一个列表</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jiu'di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan'zhuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可以对结果进行索引和切片，也不能对结果调用列表方法。</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo'yin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qie'pian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>lie'biao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fang'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置参数</t>
+    <rPh sb="0" eb="1">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认参数</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变参数</t>
+    <rPh sb="0" eb="1">
+      <t>ke'bian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字参数</t>
+    <rPh sb="0" eb="1">
+      <t>guan'jian'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名关键字参数</t>
+    <rPh sb="0" eb="1">
+      <t>ming'ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'jian'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数组合</t>
+    <rPh sb="0" eb="1">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'he</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2215,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -3078,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3212,6 +3659,11 @@
         <v>115</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3223,7 +3675,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3439,12 +3891,249 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="32" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
